--- a/_sync/StableDiffusion资源/StableDiffusion资源.xlsx
+++ b/_sync/StableDiffusion资源/StableDiffusion资源.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24349769-C8C1-4D55-A0E4-4354F2825453}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA44B49-FAD8-4F1E-BBC9-19476EF4324D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="模型差别" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,12 +21,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>https://stableres.info/</t>
   </si>
   <si>
     <t>https://civitai.com/</t>
+  </si>
+  <si>
+    <t>unclip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型经过评分优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没经过评分优化,更适合训练和微调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不清楚含义,据说是图像有了视觉风格迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典模型,但有很多问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与2.0一样训练,提高了一些NSFW的宽容度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更好的模型,更好的算法和数据集,降低了很多常见问题的发生概率,但是对NSFW进行了严格过滤,生成带人物的图像时有明显的想象力局限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -352,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -373,4 +426,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C665746-7E33-401D-B586-C012D95EDED3}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>